--- a/Danilar5/evidence.xlsx
+++ b/Danilar5/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="770" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,45 +76,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -143,6 +110,201 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>1FDE0F3EBB40D121848599856778C07ACB53B22D2F8C4D0F64B74A1BE29F18EF</t>
+  </si>
+  <si>
+    <t>rabbitsAI</t>
+  </si>
+  <si>
+    <t>858C3A2D44C930C57955510092284BF17C9BCA7836D274D5EBD297B36A52DC4F</t>
+  </si>
+  <si>
+    <t>aiRabbit1</t>
+  </si>
+  <si>
+    <t>021DABE92D893C784B458277C7CA4AECA8647BAD1B1D5935A2C909FEAF44186C</t>
+  </si>
+  <si>
+    <t>aiRabbit2</t>
+  </si>
+  <si>
+    <t>F9A277AC6DB72F8E7FA5047896A44477ABE086C03AEAD5FA4161EE0A6E461F2C</t>
+  </si>
+  <si>
+    <t>stars1k7gpqwfymvvem960mn4w5lt7kdjn6skjhzha9yq7e62kr4q8ts7s82h2hm</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>8290BFCFE4253DAF7D90002835C273E97BC991783F4D33C8FE1B320CFC9CBB92</t>
+  </si>
+  <si>
+    <t>ibc/1764A10AAC3515E82D69D24D65A26757FBB577CBD83C2F110637D2AEA3E55948</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>8885F9E8E3ED6911444BEEAB0BCE5121FEC75CAF51523A5B1EA17E08BBF50131</t>
+  </si>
+  <si>
+    <t>FF2E6A08DDA469DABC739FFF0D163B28E2C676AA75D80898BE9D1D723F9DF84E</t>
+  </si>
+  <si>
+    <t>ibc/3BAB0A6E73F8B73DEEC5AACBF01059831ECDA4E9C7BB37A09FA40324E5204D2B</t>
+  </si>
+  <si>
+    <t>aiRabbit3</t>
+  </si>
+  <si>
+    <t>ibc/AB26D03A550D25514741311222DF9A638F9B26D676888C8B66A129C7A97E44E4</t>
+  </si>
+  <si>
+    <t>aiRabbit4</t>
+  </si>
+  <si>
+    <t>ibc/C1CBABF0CC6A3141AEF22E200AFDE97D42D9BC4FF17712C0945776260E62261E</t>
+  </si>
+  <si>
+    <t>aiRabbit5</t>
+  </si>
+  <si>
+    <t>ibc/97B70650AA02B05815F4C7F8062B3472D02434540357CAD3C409B5B964E7F03F</t>
+  </si>
+  <si>
+    <t>aiRabbit6</t>
+  </si>
+  <si>
+    <t>ibc/C9055955F22B66AB8891886CE417991074E7218766D8C25BC56E4F9839538795</t>
+  </si>
+  <si>
+    <t>aiRabbit7</t>
+  </si>
+  <si>
+    <t>ibc/C4A27516B833CF328C0016D2EB0B8C863AAEC3FEA0DA82B0CC7CCB039D854522</t>
+  </si>
+  <si>
+    <t>aiRabbit8</t>
+  </si>
+  <si>
+    <t>7BB491A7380B761366B0D21AA9DCA4308AEEACEBB8D380FCFA388863D22F02A9</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>CE2CAB754CBA1C13244F135250B6213413AE7886FEFD8C71D8DC325F3C44EB18</t>
+  </si>
+  <si>
+    <t>55D6714561991373285E5213B3416AA6568A2A2CB9CC8B01734BC6B50DE4EE97</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>06035BEC49B1EA87B9620DE31BAE549CE5F04EEB48076D8F17717B667CAD8A4A</t>
+  </si>
+  <si>
+    <t>CF4FABDB4EB5AC071D0C847FE29E98B458EDF6235A827CE39717692D0A250DBC</t>
+  </si>
+  <si>
+    <t>5830BE6406CDDD8929AF92C07AC6DC3F3D78A448B9CCB434EA8C4D4462C500FE</t>
+  </si>
+  <si>
+    <t>F67B74EBDFC6A6CA7E836DD886FDF56E0A0E6E4FE3A3B0F994F9BE9D432A56E5</t>
+  </si>
+  <si>
+    <t>8F2182E598E19CAEA90C10833E96321E2E7B66A550E6F15081F56D0EE7571103</t>
+  </si>
+  <si>
+    <t>B7D26708748AB6F35E572A7707689BF262D79307E0330C8DB790BA7DE3368DE3</t>
+  </si>
+  <si>
+    <t>AA4477C081FEC62EAE4EA1E2A25CE965B66C6AEA6876B55A65C7643BED9B0A96</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>6B118B9FC86EB3491B94966F9A9A0EC8E0CE61017BA9F585146ABA291781F2FE</t>
+  </si>
+  <si>
+    <t>CD3979FC643BD562D596D484A0A0DCD4F40A7050CB0EC5972D4F02BC54574C8E</t>
+  </si>
+  <si>
+    <t>93A32BEAE5E680DDF0FF7330D2E497500213E90A9CB93229CA8198E40CA3C16E</t>
+  </si>
+  <si>
+    <t>7E18C88B122C08F6319F1D3C6F423377A12623B33134BDDED71BE04ACCE51082</t>
+  </si>
+  <si>
+    <t>13C71DAD6EA250786326E0205AEF1EECF77055CDEDA100BA2E48EAA4A118E30A</t>
+  </si>
+  <si>
+    <t>F6FB057650735CF578CD89A17478BA407CDF9430E1B3589F301C92150AEB9A31</t>
+  </si>
+  <si>
+    <t>B6804D15F5778E5B43D697A90A9B0CBB51965104B6BF5FCDE4D2D8F1241BBDBD</t>
+  </si>
+  <si>
+    <t>7914932475232B7808B282B277C366ECCD9C6B0902AE12D313DBF85F771CE14C</t>
+  </si>
+  <si>
+    <t>589C8890609AFD8567A4782B0EC16C195BD21D2655A3B44A29B97C64236BC6A5</t>
+  </si>
+  <si>
+    <t>C7D0697699C0947A0985924DF1314C627217A6035FAA5D65BE857BCA58041E20</t>
+  </si>
+  <si>
+    <t>1AE9160AF0A8DDFBA4EE6CD73C29B53F38388D43AA3E145D14A2E1ECB7CE4D15</t>
+  </si>
+  <si>
+    <t>E4AD7B9E126998E52D06256E9D8F51360C68D7942EBFD9B8E63C36C40995652A</t>
+  </si>
+  <si>
+    <t>F0822B0FADBFB00EFA12CD48F4BFC259617E8AB789F6D240460AC0392036FAFB</t>
+  </si>
+  <si>
+    <t>2E565F472025C3364EDD1E4C729C3A03E8767F8DA94C954B8FCD85026E0DC984</t>
+  </si>
+  <si>
+    <t>F182F24811E84926722F1D61111D6EB3DE96BF9B98EAA630576DFED0FC488AC1</t>
+  </si>
+  <si>
+    <t>9FE0F506DFE7C79E70C5659CFEC9925DCFB348DB54D7DF90C4A1DB62B77A9027</t>
+  </si>
+  <si>
+    <t>510B2B966EAB608D404AFBDF04B757F570F403794A334EDC15F1571837AFE3B1</t>
+  </si>
+  <si>
+    <t>7141BD8C47DC0538A5A607474B5B8055D57B19F42B997A3FF2D79BA4E7C787C7</t>
+  </si>
+  <si>
+    <t>28FEEF0FD1FD082B727471D6381B785EAAE29C88ED80561BEAC915307DCDB1F4</t>
+  </si>
+  <si>
+    <t>A1042D79E2BCF78BE060F059EE673536E4E56B6D6A7140544406AC3971F2B6F2</t>
+  </si>
+  <si>
+    <t>63AA71893435C36FE3DB81E859AADBAE7597D6201DB9493EC6468719FF228AB3</t>
+  </si>
+  <si>
+    <t>DE969BFD07934C1EFAA3B1DDC399E52F29BAEB9E58B4D5C701420DE332CD021D</t>
+  </si>
+  <si>
+    <t>7FA71806732446306841CC15335228B1E85138E8AE7A38266A69ED76857493D5</t>
+  </si>
+  <si>
+    <t>47A7B615850456782F3413F2A13E857A69349D7FECD9B91359E632AD0511D51B</t>
+  </si>
+  <si>
+    <t>F9CC28517BCA0BBBF0F39A528653DB70BDA47506CB309E40F0157BCA2872C331</t>
+  </si>
+  <si>
+    <t>C822BAE4DD6DA3F2649AFCB4579B0E730AAB2D6CE5C59770FDAD9EACB44F0D18</t>
   </si>
 </sst>
 </file>
@@ -217,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -236,6 +398,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,28 +791,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -672,15 +840,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -706,15 +876,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -740,15 +912,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -774,15 +948,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -793,9 +967,191 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -808,43 +1164,290 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,322 +1455,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1194,12 +1530,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1226,12 +1562,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1258,12 +1594,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1292,12 +1628,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1323,12 +1659,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1338,9 +1674,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1356,18 +1694,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1397,24 +1748,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1444,24 +1797,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1491,24 +1846,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1539,24 +1896,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1582,15 +1941,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1616,15 +1977,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
